--- a/REGULAR/OJT/BAYBAY, MA. PAZ.xlsx
+++ b/REGULAR/OJT/BAYBAY, MA. PAZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="218">
   <si>
     <t>PERIOD</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <t>5/2-5/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1576,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1619,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1683,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1743,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1809,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +1872,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1970,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2029,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2094,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2137,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2212,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2398,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2464,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2522,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2588,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2644,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2719,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2762,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2828,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2884,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2982,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3045,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,7 +3494,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1890" topLeftCell="A338" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="B358" sqref="B358"/>
+      <selection pane="bottomLeft" activeCell="I359" sqref="I359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,7 +3651,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>138.01399999999998</v>
+        <v>141.76399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3655,7 +3661,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>112.208</v>
+        <v>113.958</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11414,13 +11420,15 @@
       <c r="B357" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C357" s="13"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G357" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H357" s="39">
         <v>4</v>
@@ -11432,15 +11440,19 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="40"/>
+      <c r="A358" s="40">
+        <v>45078</v>
+      </c>
       <c r="B358" s="20"/>
-      <c r="C358" s="13"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G358" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
@@ -11448,20 +11460,30 @@
       <c r="K358" s="20"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="40"/>
-      <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="A359" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B359" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H359" s="39"/>
+      <c r="G359" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H359" s="39">
+        <v>2</v>
+      </c>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
-      <c r="K359" s="20"/>
+      <c r="K359" s="20" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>

--- a/REGULAR/OJT/BAYBAY, MA. PAZ.xlsx
+++ b/REGULAR/OJT/BAYBAY, MA. PAZ.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="220">
   <si>
     <t>PERIOD</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>7/27,28/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>9/20,22/2023</t>
   </si>
 </sst>
 </file>
@@ -3111,7 +3117,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K368" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K369" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3489,12 +3495,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K368"/>
+  <dimension ref="A2:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A338" activePane="bottomLeft"/>
-      <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="I359" sqref="I359"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A347" activePane="bottomLeft"/>
+      <selection activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="K362" sqref="K362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,7 +3657,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>141.76399999999998</v>
+        <v>144.26399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3661,7 +3667,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>113.958</v>
+        <v>113.458</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11486,15 +11492,19 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40"/>
+      <c r="A360" s="40">
+        <v>45139</v>
+      </c>
       <c r="B360" s="20"/>
-      <c r="C360" s="13"/>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G360" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H360" s="39"/>
       <c r="I360" s="9"/>
@@ -11502,39 +11512,57 @@
       <c r="K360" s="20"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="40"/>
-      <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
+      <c r="A361" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D361" s="39"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H361" s="39"/>
+      <c r="G361" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H361" s="39">
+        <v>1</v>
+      </c>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
-      <c r="K361" s="20"/>
+      <c r="K361" s="51">
+        <v>45174</v>
+      </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
-      <c r="B362" s="20"/>
+      <c r="B362" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="42" t="str">
+      <c r="G362" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H362" s="39"/>
+      <c r="H362" s="39">
+        <v>2</v>
+      </c>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
+      <c r="K362" s="51" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="40"/>
+      <c r="A363" s="40">
+        <v>45200</v>
+      </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -11628,6 +11656,22 @@
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="40"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="39"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="39"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
